--- a/Jogos_do_Dia/2023-08-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>League</t>
   </si>
@@ -124,12 +124,12 @@
     <t>China Chinese Super League</t>
   </si>
   <si>
+    <t>Finland Veikkausliiga</t>
+  </si>
+  <si>
     <t>Norway First Division</t>
   </si>
   <si>
-    <t>Finland Veikkausliiga</t>
-  </si>
-  <si>
     <t>Europe UEFA Champions League</t>
   </si>
   <si>
@@ -163,45 +163,48 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>Shijiazhuang Ever Bright</t>
+  </si>
+  <si>
     <t>Shanghai Shenhua</t>
   </si>
   <si>
-    <t>Shijiazhuang Ever Bright</t>
+    <t>Tianjin Teda</t>
   </si>
   <si>
     <t>Wuhan Three Towns</t>
   </si>
   <si>
-    <t>Tianjin Teda</t>
+    <t>VPS</t>
+  </si>
+  <si>
+    <t>Åsane</t>
+  </si>
+  <si>
+    <t>Sogndal</t>
+  </si>
+  <si>
+    <t>Raufoss</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>Hødd</t>
+  </si>
+  <si>
+    <t>Fredrikstad</t>
   </si>
   <si>
     <t>Ranheim</t>
   </si>
   <si>
-    <t>Fredrikstad</t>
-  </si>
-  <si>
-    <t>Hødd</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Moss</t>
-  </si>
-  <si>
-    <t>Sogndal</t>
-  </si>
-  <si>
-    <t>Åsane</t>
-  </si>
-  <si>
-    <t>VPS</t>
-  </si>
-  <si>
-    <t>Raufoss</t>
-  </si>
-  <si>
     <t>Panathinaikos</t>
   </si>
   <si>
@@ -217,51 +220,54 @@
     <t>HK</t>
   </si>
   <si>
+    <t>CSD Independiente del Valle</t>
+  </si>
+  <si>
     <t>Boca Juniors</t>
   </si>
   <si>
-    <t>CSD Independiente del Valle</t>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Dalian Yifang</t>
   </si>
   <si>
     <t>Shenzhen</t>
   </si>
   <si>
-    <t>Dalian Yifang</t>
+    <t>Beijing Guoan</t>
   </si>
   <si>
     <t>Henan Jianye</t>
   </si>
   <si>
-    <t>Beijing Guoan</t>
+    <t>SJK</t>
+  </si>
+  <si>
+    <t>Mjøndalen</t>
+  </si>
+  <si>
+    <t>Kristiansund</t>
+  </si>
+  <si>
+    <t>Jerv</t>
+  </si>
+  <si>
+    <t>Skeid</t>
+  </si>
+  <si>
+    <t>KFUM</t>
+  </si>
+  <si>
+    <t>Sandnes Ulf</t>
+  </si>
+  <si>
+    <t>Bryne</t>
   </si>
   <si>
     <t>Kongsvinger</t>
   </si>
   <si>
-    <t>Bryne</t>
-  </si>
-  <si>
-    <t>Sandnes Ulf</t>
-  </si>
-  <si>
-    <t>Skeid</t>
-  </si>
-  <si>
-    <t>KFUM</t>
-  </si>
-  <si>
-    <t>Kristiansund</t>
-  </si>
-  <si>
-    <t>Mjøndalen</t>
-  </si>
-  <si>
-    <t>SJK</t>
-  </si>
-  <si>
-    <t>Jerv</t>
-  </si>
-  <si>
     <t>Olympique Marseille</t>
   </si>
   <si>
@@ -277,10 +283,13 @@
     <t>Keflavík</t>
   </si>
   <si>
+    <t>Deportivo Pereira</t>
+  </si>
+  <si>
     <t>Nacional</t>
   </si>
   <si>
-    <t>Deportivo Pereira</t>
+    <t>Atlético Mineiro</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,91 +778,91 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2">
+        <v>1.92</v>
+      </c>
+      <c r="H2">
+        <v>3.44</v>
+      </c>
+      <c r="I2">
+        <v>3.35</v>
+      </c>
+      <c r="J2">
+        <v>1.01</v>
+      </c>
+      <c r="K2">
+        <v>9.6</v>
+      </c>
+      <c r="L2">
+        <v>1.25</v>
+      </c>
+      <c r="M2">
+        <v>3.48</v>
+      </c>
+      <c r="N2">
+        <v>1.8</v>
+      </c>
+      <c r="O2">
+        <v>1.88</v>
+      </c>
+      <c r="P2">
+        <v>1.37</v>
+      </c>
+      <c r="Q2">
+        <v>2.96</v>
+      </c>
+      <c r="R2">
+        <v>1.73</v>
+      </c>
+      <c r="S2">
+        <v>2.04</v>
+      </c>
+      <c r="T2">
+        <v>1.28</v>
+      </c>
+      <c r="U2">
+        <v>1.28</v>
+      </c>
+      <c r="V2">
+        <v>1.83</v>
+      </c>
+      <c r="W2">
+        <v>1.36</v>
+      </c>
+      <c r="X2">
+        <v>0.3</v>
+      </c>
+      <c r="Y2">
+        <v>1.38</v>
+      </c>
+      <c r="Z2">
         <v>1.12</v>
       </c>
-      <c r="H2">
-        <v>7.5</v>
-      </c>
-      <c r="I2">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>1.02</v>
-      </c>
-      <c r="K2">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>1.12</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>1.53</v>
-      </c>
-      <c r="O2">
-        <v>2.3</v>
-      </c>
-      <c r="P2">
-        <v>1.25</v>
-      </c>
-      <c r="Q2">
-        <v>3.72</v>
-      </c>
-      <c r="R2">
-        <v>2.45</v>
-      </c>
-      <c r="S2">
-        <v>1.51</v>
-      </c>
-      <c r="T2">
-        <v>1.01</v>
-      </c>
-      <c r="U2">
-        <v>1.07</v>
-      </c>
-      <c r="V2">
-        <v>5.7</v>
-      </c>
-      <c r="W2">
-        <v>1.8</v>
-      </c>
-      <c r="X2">
-        <v>0.2</v>
-      </c>
-      <c r="Y2">
-        <v>1.46</v>
-      </c>
-      <c r="Z2">
-        <v>0.83</v>
-      </c>
       <c r="AA2">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AB2">
-        <v>1.11</v>
+        <v>1.57</v>
       </c>
       <c r="AC2">
-        <v>9.5</v>
+        <v>5.75</v>
       </c>
       <c r="AD2">
-        <v>8.25</v>
+        <v>2.75</v>
       </c>
       <c r="AE2">
         <v>1.36</v>
       </c>
       <c r="AF2">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AG2">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="AH2">
         <v>2.7</v>
@@ -876,94 +885,94 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="H3">
-        <v>3.44</v>
+        <v>7.4</v>
       </c>
       <c r="I3">
-        <v>3.35</v>
+        <v>16.75</v>
       </c>
       <c r="J3">
+        <v>1.02</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>1.12</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>1.53</v>
+      </c>
+      <c r="O3">
+        <v>2.4</v>
+      </c>
+      <c r="P3">
+        <v>1.25</v>
+      </c>
+      <c r="Q3">
+        <v>3.72</v>
+      </c>
+      <c r="R3">
+        <v>2.45</v>
+      </c>
+      <c r="S3">
+        <v>1.51</v>
+      </c>
+      <c r="T3">
         <v>1.01</v>
       </c>
-      <c r="K3">
-        <v>9.6</v>
-      </c>
-      <c r="L3">
-        <v>1.25</v>
-      </c>
-      <c r="M3">
-        <v>3.48</v>
-      </c>
-      <c r="N3">
+      <c r="U3">
+        <v>1.07</v>
+      </c>
+      <c r="V3">
+        <v>5.7</v>
+      </c>
+      <c r="W3">
         <v>1.8</v>
       </c>
-      <c r="O3">
-        <v>1.88</v>
-      </c>
-      <c r="P3">
-        <v>1.37</v>
-      </c>
-      <c r="Q3">
-        <v>2.96</v>
-      </c>
-      <c r="R3">
-        <v>1.73</v>
-      </c>
-      <c r="S3">
-        <v>2.04</v>
-      </c>
-      <c r="T3">
-        <v>1.28</v>
-      </c>
-      <c r="U3">
-        <v>1.28</v>
-      </c>
-      <c r="V3">
-        <v>1.83</v>
-      </c>
-      <c r="W3">
-        <v>1.36</v>
-      </c>
       <c r="X3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y3">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="Z3">
-        <v>1.12</v>
+        <v>0.83</v>
       </c>
       <c r="AA3">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AB3">
-        <v>1.57</v>
+        <v>1.11</v>
       </c>
       <c r="AC3">
-        <v>5.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD3">
-        <v>2.75</v>
+        <v>8.25</v>
       </c>
       <c r="AE3">
         <v>1.36</v>
       </c>
       <c r="AF3">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AG3">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI3">
         <v>3.7</v>
@@ -983,97 +992,97 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G4">
-        <v>1.25</v>
+        <v>2.95</v>
       </c>
       <c r="H4">
-        <v>5.5</v>
+        <v>3.52</v>
       </c>
       <c r="I4">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="J4">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L4">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="M4">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="O4">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="P4">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Q4">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="R4">
-        <v>1.86</v>
+        <v>1.54</v>
       </c>
       <c r="S4">
-        <v>1.74</v>
+        <v>2.15</v>
       </c>
       <c r="T4">
-        <v>1.06</v>
+        <v>1.6</v>
       </c>
       <c r="U4">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="V4">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="W4">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.87</v>
+        <v>1.4</v>
       </c>
       <c r="Z4">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="AA4">
-        <v>3.02</v>
+        <v>2.84</v>
       </c>
       <c r="AB4">
-        <v>1.29</v>
+        <v>2.25</v>
       </c>
       <c r="AC4">
-        <v>8.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD4">
-        <v>4.8</v>
+        <v>1.83</v>
       </c>
       <c r="AE4">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AF4">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="AG4">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="AH4">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1090,97 +1099,97 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5">
-        <v>2.88</v>
+        <v>1.28</v>
       </c>
       <c r="H5">
+        <v>5.65</v>
+      </c>
+      <c r="I5">
+        <v>10.25</v>
+      </c>
+      <c r="J5">
+        <v>1.02</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>1.11</v>
+      </c>
+      <c r="M5">
+        <v>4.6</v>
+      </c>
+      <c r="N5">
+        <v>1.55</v>
+      </c>
+      <c r="O5">
+        <v>2.35</v>
+      </c>
+      <c r="P5">
+        <v>1.29</v>
+      </c>
+      <c r="Q5">
+        <v>3.25</v>
+      </c>
+      <c r="R5">
+        <v>1.86</v>
+      </c>
+      <c r="S5">
+        <v>1.74</v>
+      </c>
+      <c r="T5">
+        <v>1.06</v>
+      </c>
+      <c r="U5">
+        <v>1.14</v>
+      </c>
+      <c r="V5">
         <v>3.5</v>
       </c>
-      <c r="I5">
-        <v>2.15</v>
-      </c>
-      <c r="J5">
-        <v>1.01</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
-      <c r="L5">
-        <v>1.2</v>
-      </c>
-      <c r="M5">
-        <v>3.6</v>
-      </c>
-      <c r="N5">
+      <c r="W5">
+        <v>1.56</v>
+      </c>
+      <c r="X5">
+        <v>0.5</v>
+      </c>
+      <c r="Y5">
         <v>1.87</v>
       </c>
-      <c r="O5">
-        <v>2.02</v>
-      </c>
-      <c r="P5">
-        <v>1.31</v>
-      </c>
-      <c r="Q5">
-        <v>2.95</v>
-      </c>
-      <c r="R5">
-        <v>1.54</v>
-      </c>
-      <c r="S5">
-        <v>2.15</v>
-      </c>
-      <c r="T5">
-        <v>1.6</v>
-      </c>
-      <c r="U5">
-        <v>1.28</v>
-      </c>
-      <c r="V5">
-        <v>1.34</v>
-      </c>
-      <c r="W5">
-        <v>1.6</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1.4</v>
-      </c>
       <c r="Z5">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="AA5">
-        <v>2.84</v>
+        <v>3.02</v>
       </c>
       <c r="AB5">
-        <v>2.25</v>
+        <v>1.29</v>
       </c>
       <c r="AC5">
-        <v>6.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5">
-        <v>1.83</v>
+        <v>4.8</v>
       </c>
       <c r="AE5">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AF5">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="AG5">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="AH5">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AI5">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1194,105 +1203,105 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="H6">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I6">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J6">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="L6">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="M6">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N6">
+        <v>1.95</v>
+      </c>
+      <c r="O6">
+        <v>1.7</v>
+      </c>
+      <c r="P6">
+        <v>1.43</v>
+      </c>
+      <c r="Q6">
+        <v>2.94</v>
+      </c>
+      <c r="R6">
+        <v>1.72</v>
+      </c>
+      <c r="S6">
+        <v>1.97</v>
+      </c>
+      <c r="T6">
         <v>1.55</v>
       </c>
-      <c r="O6">
-        <v>2.4</v>
-      </c>
-      <c r="P6">
+      <c r="U6">
+        <v>1.33</v>
+      </c>
+      <c r="V6">
+        <v>1.36</v>
+      </c>
+      <c r="W6">
+        <v>1.56</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>1.45</v>
+      </c>
+      <c r="Z6">
         <v>1.29</v>
       </c>
-      <c r="Q6">
-        <v>3.5</v>
-      </c>
-      <c r="R6">
+      <c r="AA6">
+        <v>2.74</v>
+      </c>
+      <c r="AB6">
+        <v>2.2</v>
+      </c>
+      <c r="AC6">
+        <v>7</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>1.22</v>
+      </c>
+      <c r="AF6">
         <v>1.5</v>
       </c>
-      <c r="S6">
-        <v>2.5</v>
-      </c>
-      <c r="T6">
-        <v>1.6</v>
-      </c>
-      <c r="U6">
-        <v>1.25</v>
-      </c>
-      <c r="V6">
-        <v>1.4</v>
-      </c>
-      <c r="W6">
-        <v>1.71</v>
-      </c>
-      <c r="X6">
+      <c r="AG6">
         <v>1.63</v>
       </c>
-      <c r="Y6">
-        <v>1.8</v>
-      </c>
-      <c r="Z6">
-        <v>1.14</v>
-      </c>
-      <c r="AA6">
-        <v>2.94</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>45147</v>
@@ -1304,102 +1313,102 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7">
-        <v>1.75</v>
+        <v>2.32</v>
       </c>
       <c r="H7">
+        <v>3.64</v>
+      </c>
+      <c r="I7">
+        <v>2.87</v>
+      </c>
+      <c r="J7">
+        <v>1.03</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>1.17</v>
+      </c>
+      <c r="M7">
+        <v>4.5</v>
+      </c>
+      <c r="N7">
+        <v>1.52</v>
+      </c>
+      <c r="O7">
+        <v>2.5</v>
+      </c>
+      <c r="P7">
+        <v>1.29</v>
+      </c>
+      <c r="Q7">
         <v>3.5</v>
       </c>
-      <c r="I7">
-        <v>3.9</v>
-      </c>
-      <c r="J7">
-        <v>1.05</v>
-      </c>
-      <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7">
-        <v>1.29</v>
-      </c>
-      <c r="M7">
-        <v>3.5</v>
-      </c>
-      <c r="N7">
-        <v>1.8</v>
-      </c>
-      <c r="O7">
-        <v>2.04</v>
-      </c>
-      <c r="P7">
-        <v>1.36</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
       <c r="R7">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T7">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="U7">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>0.57</v>
       </c>
       <c r="X7">
-        <v>0.57</v>
+        <v>1.71</v>
       </c>
       <c r="Y7">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="Z7">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AA7">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>45147</v>
@@ -1411,102 +1420,102 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H8">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I8">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J8">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L8">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N8">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="O8">
-        <v>2.12</v>
+        <v>2.45</v>
       </c>
       <c r="P8">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q8">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R8">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T8">
         <v>1.44</v>
       </c>
       <c r="U8">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V8">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W8">
-        <v>0.88</v>
+        <v>2.29</v>
       </c>
       <c r="X8">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="Y8">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="Z8">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="AA8">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
         <v>45147</v>
@@ -1518,82 +1527,82 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G9">
+        <v>2.38</v>
+      </c>
+      <c r="H9">
+        <v>3.5</v>
+      </c>
+      <c r="I9">
+        <v>2.87</v>
+      </c>
+      <c r="J9">
+        <v>1.04</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>1.22</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
         <v>1.75</v>
       </c>
-      <c r="H9">
-        <v>3.8</v>
-      </c>
-      <c r="I9">
-        <v>3.6</v>
-      </c>
-      <c r="J9">
-        <v>1.02</v>
-      </c>
-      <c r="K9">
-        <v>13</v>
-      </c>
-      <c r="L9">
-        <v>1.15</v>
-      </c>
-      <c r="M9">
-        <v>4.75</v>
-      </c>
-      <c r="N9">
-        <v>1.42</v>
-      </c>
       <c r="O9">
-        <v>2.85</v>
+        <v>2.05</v>
       </c>
       <c r="P9">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q9">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T9">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="U9">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W9">
-        <v>2.29</v>
+        <v>1.71</v>
       </c>
       <c r="X9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="Z9">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AA9">
-        <v>2.99</v>
+        <v>2.79</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1602,18 +1611,18 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2">
         <v>45147</v>
@@ -1625,102 +1634,102 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10">
-        <v>2.38</v>
+        <v>1.85</v>
       </c>
       <c r="H10">
-        <v>3.25</v>
+        <v>4.05</v>
       </c>
       <c r="I10">
-        <v>2.62</v>
+        <v>3.77</v>
       </c>
       <c r="J10">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L10">
+        <v>1.15</v>
+      </c>
+      <c r="M10">
+        <v>4.75</v>
+      </c>
+      <c r="N10">
+        <v>1.42</v>
+      </c>
+      <c r="O10">
+        <v>2.85</v>
+      </c>
+      <c r="P10">
+        <v>1.25</v>
+      </c>
+      <c r="Q10">
+        <v>3.75</v>
+      </c>
+      <c r="R10">
+        <v>1.5</v>
+      </c>
+      <c r="S10">
+        <v>2.5</v>
+      </c>
+      <c r="T10">
+        <v>1.25</v>
+      </c>
+      <c r="U10">
+        <v>1.2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>2.29</v>
+      </c>
+      <c r="X10">
+        <v>0.75</v>
+      </c>
+      <c r="Y10">
+        <v>1.77</v>
+      </c>
+      <c r="Z10">
         <v>1.22</v>
       </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>1.63</v>
-      </c>
-      <c r="O10">
-        <v>2.14</v>
-      </c>
-      <c r="P10">
-        <v>1.33</v>
-      </c>
-      <c r="Q10">
-        <v>3.25</v>
-      </c>
-      <c r="R10">
-        <v>1.53</v>
-      </c>
-      <c r="S10">
-        <v>2.38</v>
-      </c>
-      <c r="T10">
-        <v>1.44</v>
-      </c>
-      <c r="U10">
-        <v>1.25</v>
-      </c>
-      <c r="V10">
-        <v>1.53</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
-      </c>
-      <c r="X10">
-        <v>1.38</v>
-      </c>
-      <c r="Y10">
-        <v>1.69</v>
-      </c>
-      <c r="Z10">
-        <v>1.46</v>
-      </c>
       <c r="AA10">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2">
         <v>45147</v>
@@ -1732,49 +1741,49 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="H11">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="I11">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J11">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N11">
+        <v>1.66</v>
+      </c>
+      <c r="O11">
+        <v>2.2</v>
+      </c>
+      <c r="P11">
+        <v>1.33</v>
+      </c>
+      <c r="Q11">
+        <v>3.25</v>
+      </c>
+      <c r="R11">
         <v>1.53</v>
       </c>
-      <c r="O11">
-        <v>2.45</v>
-      </c>
-      <c r="P11">
-        <v>1.25</v>
-      </c>
-      <c r="Q11">
-        <v>3.75</v>
-      </c>
-      <c r="R11">
-        <v>1.5</v>
-      </c>
       <c r="S11">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T11">
         <v>1.44</v>
@@ -1783,51 +1792,51 @@
         <v>1.25</v>
       </c>
       <c r="V11">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W11">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="Y11">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="Z11">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AA11">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2">
         <v>45147</v>
@@ -1839,97 +1848,97 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="H12">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="I12">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J12">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M12">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="O12">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P12">
+        <v>1.33</v>
+      </c>
+      <c r="Q12">
+        <v>3.25</v>
+      </c>
+      <c r="R12">
+        <v>1.53</v>
+      </c>
+      <c r="S12">
+        <v>2.38</v>
+      </c>
+      <c r="T12">
+        <v>1.44</v>
+      </c>
+      <c r="U12">
         <v>1.29</v>
       </c>
-      <c r="Q12">
-        <v>3.5</v>
-      </c>
-      <c r="R12">
+      <c r="V12">
         <v>1.5</v>
       </c>
-      <c r="S12">
-        <v>2.5</v>
-      </c>
-      <c r="T12">
-        <v>1.4</v>
-      </c>
-      <c r="U12">
-        <v>1.25</v>
-      </c>
-      <c r="V12">
-        <v>1.6</v>
-      </c>
       <c r="W12">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="X12">
+        <v>1.14</v>
+      </c>
+      <c r="Y12">
+        <v>1.13</v>
+      </c>
+      <c r="Z12">
+        <v>1.26</v>
+      </c>
+      <c r="AA12">
+        <v>2.39</v>
+      </c>
+      <c r="AB12">
+        <v>1.74</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>2.3</v>
+      </c>
+      <c r="AE12">
+        <v>1.2</v>
+      </c>
+      <c r="AF12">
+        <v>1.38</v>
+      </c>
+      <c r="AG12">
         <v>1.71</v>
       </c>
-      <c r="Y12">
-        <v>1.49</v>
-      </c>
-      <c r="Z12">
-        <v>1.39</v>
-      </c>
-      <c r="AA12">
-        <v>2.88</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1943,105 +1952,105 @@
         <v>43</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G13">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>3.76</v>
       </c>
       <c r="I13">
-        <v>2.3</v>
+        <v>4.21</v>
       </c>
       <c r="J13">
         <v>1.05</v>
       </c>
       <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>1.29</v>
+      </c>
+      <c r="M13">
+        <v>3.5</v>
+      </c>
+      <c r="N13">
+        <v>1.85</v>
+      </c>
+      <c r="O13">
+        <v>1.95</v>
+      </c>
+      <c r="P13">
+        <v>1.36</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>1.73</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1.2</v>
+      </c>
+      <c r="U13">
+        <v>1.29</v>
+      </c>
+      <c r="V13">
+        <v>1.95</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>0.57</v>
+      </c>
+      <c r="Y13">
+        <v>1.41</v>
+      </c>
+      <c r="Z13">
+        <v>1.41</v>
+      </c>
+      <c r="AA13">
+        <v>2.82</v>
+      </c>
+      <c r="AB13">
+        <v>1.25</v>
+      </c>
+      <c r="AC13">
         <v>7.5</v>
       </c>
-      <c r="L13">
-        <v>1.28</v>
-      </c>
-      <c r="M13">
-        <v>3.3</v>
-      </c>
-      <c r="N13">
-        <v>1.95</v>
-      </c>
-      <c r="O13">
-        <v>1.7</v>
-      </c>
-      <c r="P13">
-        <v>1.43</v>
-      </c>
-      <c r="Q13">
-        <v>2.94</v>
-      </c>
-      <c r="R13">
-        <v>1.72</v>
-      </c>
-      <c r="S13">
-        <v>1.97</v>
-      </c>
-      <c r="T13">
-        <v>1.55</v>
-      </c>
-      <c r="U13">
-        <v>1.33</v>
-      </c>
-      <c r="V13">
-        <v>1.36</v>
-      </c>
-      <c r="W13">
-        <v>1.56</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>1.45</v>
-      </c>
-      <c r="Z13">
-        <v>1.29</v>
-      </c>
-      <c r="AA13">
-        <v>2.74</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
       <c r="AD13">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2">
         <v>45147</v>
@@ -2053,97 +2062,97 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G14">
-        <v>2.25</v>
+        <v>2.87</v>
       </c>
       <c r="H14">
-        <v>3.2</v>
+        <v>3.64</v>
       </c>
       <c r="I14">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="J14">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="O14">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="P14">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q14">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R14">
+        <v>1.5</v>
+      </c>
+      <c r="S14">
+        <v>2.5</v>
+      </c>
+      <c r="T14">
         <v>1.6</v>
       </c>
-      <c r="S14">
-        <v>2.25</v>
-      </c>
-      <c r="T14">
+      <c r="U14">
+        <v>1.25</v>
+      </c>
+      <c r="V14">
         <v>1.4</v>
-      </c>
-      <c r="U14">
-        <v>1.29</v>
-      </c>
-      <c r="V14">
-        <v>1.57</v>
       </c>
       <c r="W14">
         <v>1.71</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="Y14">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="Z14">
+        <v>1.14</v>
+      </c>
+      <c r="AA14">
+        <v>2.94</v>
+      </c>
+      <c r="AB14">
+        <v>2.08</v>
+      </c>
+      <c r="AC14">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD14">
+        <v>1.98</v>
+      </c>
+      <c r="AE14">
+        <v>1.18</v>
+      </c>
+      <c r="AF14">
         <v>1.33</v>
       </c>
-      <c r="AA14">
-        <v>2.79</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2160,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15">
-        <v>3.4</v>
+        <v>3.19</v>
       </c>
       <c r="H15">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2187,10 +2196,10 @@
         <v>3.26</v>
       </c>
       <c r="N15">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O15">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="P15">
         <v>1.41</v>
@@ -2267,19 +2276,19 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="H16">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="I16">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="J16">
         <v>1.02</v>
@@ -2297,7 +2306,7 @@
         <v>1.8</v>
       </c>
       <c r="O16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>1.28</v>
@@ -2374,19 +2383,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="I17">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="J17">
         <v>1.06</v>
@@ -2401,10 +2410,10 @@
         <v>3.2</v>
       </c>
       <c r="N17">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O17">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P17">
         <v>1.47</v>
@@ -2481,19 +2490,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H18">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I18">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J18">
         <v>1.02</v>
@@ -2508,10 +2517,10 @@
         <v>4.33</v>
       </c>
       <c r="N18">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O18">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P18">
         <v>1.31</v>
@@ -2588,19 +2597,19 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G19">
-        <v>1.83</v>
+        <v>2.11</v>
       </c>
       <c r="H19">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="I19">
-        <v>3.45</v>
+        <v>3.13</v>
       </c>
       <c r="J19">
         <v>1.03</v>
@@ -2615,7 +2624,7 @@
         <v>4.5</v>
       </c>
       <c r="N19">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O19">
         <v>2.4</v>
@@ -2666,7 +2675,7 @@
         <v>2.44</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF19">
         <v>1.19</v>
@@ -2695,97 +2704,97 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20">
+        <v>1.5</v>
+      </c>
+      <c r="H20">
+        <v>3.9</v>
+      </c>
+      <c r="I20">
+        <v>6.5</v>
+      </c>
+      <c r="J20">
+        <v>1.05</v>
+      </c>
+      <c r="K20">
+        <v>12.75</v>
+      </c>
+      <c r="L20">
+        <v>1.28</v>
+      </c>
+      <c r="M20">
+        <v>3.75</v>
+      </c>
+      <c r="N20">
+        <v>1.8</v>
+      </c>
+      <c r="O20">
+        <v>1.87</v>
+      </c>
+      <c r="P20">
+        <v>1.35</v>
+      </c>
+      <c r="Q20">
+        <v>2.95</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.78</v>
+      </c>
+      <c r="T20">
+        <v>1.14</v>
+      </c>
+      <c r="U20">
+        <v>1.23</v>
+      </c>
+      <c r="V20">
+        <v>2.55</v>
+      </c>
+      <c r="W20">
+        <v>1.71</v>
+      </c>
+      <c r="X20">
         <v>1.57</v>
       </c>
-      <c r="H20">
-        <v>3.65</v>
-      </c>
-      <c r="I20">
-        <v>5.75</v>
-      </c>
-      <c r="J20">
-        <v>1.08</v>
-      </c>
-      <c r="K20">
-        <v>8.9</v>
-      </c>
-      <c r="L20">
-        <v>1.41</v>
-      </c>
-      <c r="M20">
-        <v>2.93</v>
-      </c>
-      <c r="N20">
-        <v>2.1</v>
-      </c>
-      <c r="O20">
-        <v>1.65</v>
-      </c>
-      <c r="P20">
-        <v>1.48</v>
-      </c>
-      <c r="Q20">
-        <v>2.5</v>
-      </c>
-      <c r="R20">
-        <v>2.15</v>
-      </c>
-      <c r="S20">
-        <v>1.68</v>
-      </c>
-      <c r="T20">
-        <v>1.18</v>
-      </c>
-      <c r="U20">
-        <v>1.3</v>
-      </c>
-      <c r="V20">
-        <v>2.1</v>
-      </c>
-      <c r="W20">
-        <v>2</v>
-      </c>
-      <c r="X20">
-        <v>1.71</v>
-      </c>
       <c r="Y20">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="Z20">
-        <v>1.61</v>
+        <v>1.12</v>
       </c>
       <c r="AA20">
-        <v>3.54</v>
+        <v>3.17</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2802,97 +2811,204 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G21">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="H21">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I21">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="J21">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K21">
-        <v>12.75</v>
+        <v>8.9</v>
       </c>
       <c r="L21">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>2.93</v>
       </c>
       <c r="N21">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="P21">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="Q21">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="R21">
+        <v>2.15</v>
+      </c>
+      <c r="S21">
+        <v>1.68</v>
+      </c>
+      <c r="T21">
+        <v>1.18</v>
+      </c>
+      <c r="U21">
+        <v>1.3</v>
+      </c>
+      <c r="V21">
+        <v>2.1</v>
+      </c>
+      <c r="W21">
         <v>2</v>
       </c>
-      <c r="S21">
-        <v>1.78</v>
-      </c>
-      <c r="T21">
-        <v>1.14</v>
-      </c>
-      <c r="U21">
+      <c r="X21">
+        <v>1.71</v>
+      </c>
+      <c r="Y21">
+        <v>1.93</v>
+      </c>
+      <c r="Z21">
+        <v>1.61</v>
+      </c>
+      <c r="AA21">
+        <v>3.54</v>
+      </c>
+      <c r="AB21">
+        <v>1.22</v>
+      </c>
+      <c r="AC21">
+        <v>10</v>
+      </c>
+      <c r="AD21">
+        <v>5.5</v>
+      </c>
+      <c r="AE21">
+        <v>1.29</v>
+      </c>
+      <c r="AF21">
+        <v>1.53</v>
+      </c>
+      <c r="AG21">
+        <v>2</v>
+      </c>
+      <c r="AH21">
+        <v>2.35</v>
+      </c>
+      <c r="AI21">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22">
+        <v>1.8</v>
+      </c>
+      <c r="H22">
+        <v>3.4</v>
+      </c>
+      <c r="I22">
+        <v>4.2</v>
+      </c>
+      <c r="J22">
+        <v>1.07</v>
+      </c>
+      <c r="K22">
+        <v>10.25</v>
+      </c>
+      <c r="L22">
+        <v>1.33</v>
+      </c>
+      <c r="M22">
+        <v>3.38</v>
+      </c>
+      <c r="N22">
+        <v>1.91</v>
+      </c>
+      <c r="O22">
+        <v>1.73</v>
+      </c>
+      <c r="P22">
+        <v>1.4</v>
+      </c>
+      <c r="Q22">
+        <v>2.75</v>
+      </c>
+      <c r="R22">
+        <v>1.88</v>
+      </c>
+      <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
         <v>1.23</v>
       </c>
-      <c r="V21">
-        <v>2.55</v>
-      </c>
-      <c r="W21">
-        <v>1.71</v>
-      </c>
-      <c r="X21">
-        <v>1.57</v>
-      </c>
-      <c r="Y21">
-        <v>2.05</v>
-      </c>
-      <c r="Z21">
-        <v>1.12</v>
-      </c>
-      <c r="AA21">
-        <v>3.17</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
+      <c r="U22">
+        <v>1.32</v>
+      </c>
+      <c r="V22">
+        <v>1.9</v>
+      </c>
+      <c r="W22">
+        <v>2.57</v>
+      </c>
+      <c r="X22">
+        <v>1.64</v>
+      </c>
+      <c r="Y22">
+        <v>2.34</v>
+      </c>
+      <c r="Z22">
+        <v>1.37</v>
+      </c>
+      <c r="AA22">
+        <v>3.71</v>
+      </c>
+      <c r="AB22">
+        <v>1.3</v>
+      </c>
+      <c r="AC22">
+        <v>9</v>
+      </c>
+      <c r="AD22">
+        <v>4.5</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1.27</v>
+      </c>
+      <c r="AG22">
+        <v>1.54</v>
+      </c>
+      <c r="AH22">
+        <v>1.93</v>
+      </c>
+      <c r="AI22">
+        <v>2.26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -891,13 +891,13 @@
         <v>72</v>
       </c>
       <c r="G3">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>7.01</v>
       </c>
       <c r="I3">
-        <v>16.75</v>
+        <v>19.31</v>
       </c>
       <c r="J3">
         <v>1.02</v>
@@ -915,7 +915,7 @@
         <v>1.53</v>
       </c>
       <c r="O3">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P3">
         <v>1.25</v>
@@ -998,13 +998,13 @@
         <v>73</v>
       </c>
       <c r="G4">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="H4">
-        <v>3.52</v>
+        <v>3.33</v>
       </c>
       <c r="I4">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="J4">
         <v>1.01</v>
@@ -1019,10 +1019,10 @@
         <v>3.6</v>
       </c>
       <c r="N4">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P4">
         <v>1.31</v>
@@ -1105,13 +1105,13 @@
         <v>74</v>
       </c>
       <c r="G5">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="H5">
-        <v>5.65</v>
+        <v>5.35</v>
       </c>
       <c r="I5">
-        <v>10.25</v>
+        <v>10.65</v>
       </c>
       <c r="J5">
         <v>1.02</v>
@@ -1126,10 +1126,10 @@
         <v>4.6</v>
       </c>
       <c r="N5">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O5">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P5">
         <v>1.29</v>
@@ -1212,13 +1212,13 @@
         <v>75</v>
       </c>
       <c r="G6">
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
       <c r="H6">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I6">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1233,10 +1233,10 @@
         <v>3.3</v>
       </c>
       <c r="N6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P6">
         <v>1.43</v>
@@ -1319,13 +1319,13 @@
         <v>76</v>
       </c>
       <c r="G7">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="H7">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="I7">
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
       <c r="J7">
         <v>1.03</v>
@@ -1340,10 +1340,10 @@
         <v>4.5</v>
       </c>
       <c r="N7">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="O7">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="P7">
         <v>1.29</v>
@@ -1533,13 +1533,13 @@
         <v>78</v>
       </c>
       <c r="G9">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="H9">
+        <v>3.65</v>
+      </c>
+      <c r="I9">
         <v>3.5</v>
-      </c>
-      <c r="I9">
-        <v>2.87</v>
       </c>
       <c r="J9">
         <v>1.04</v>
@@ -1554,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="O9">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P9">
         <v>1.33</v>
@@ -1640,13 +1640,13 @@
         <v>79</v>
       </c>
       <c r="G10">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="H10">
-        <v>4.05</v>
+        <v>4.68</v>
       </c>
       <c r="I10">
-        <v>3.77</v>
+        <v>5.05</v>
       </c>
       <c r="J10">
         <v>1.02</v>
@@ -1661,10 +1661,10 @@
         <v>4.75</v>
       </c>
       <c r="N10">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>2.85</v>
+        <v>2.73</v>
       </c>
       <c r="P10">
         <v>1.25</v>
@@ -1747,13 +1747,13 @@
         <v>80</v>
       </c>
       <c r="G11">
-        <v>2.44</v>
+        <v>2.79</v>
       </c>
       <c r="H11">
-        <v>3.54</v>
+        <v>3.45</v>
       </c>
       <c r="I11">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1768,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="O11">
         <v>2.2</v>
@@ -1854,13 +1854,13 @@
         <v>81</v>
       </c>
       <c r="G12">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H12">
-        <v>3.52</v>
+        <v>3.39</v>
       </c>
       <c r="I12">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="J12">
         <v>1.04</v>
@@ -1875,10 +1875,10 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P12">
         <v>1.33</v>
@@ -1961,13 +1961,13 @@
         <v>82</v>
       </c>
       <c r="G13">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="H13">
-        <v>3.76</v>
+        <v>4.02</v>
       </c>
       <c r="I13">
-        <v>4.21</v>
+        <v>5.27</v>
       </c>
       <c r="J13">
         <v>1.05</v>
@@ -1982,10 +1982,10 @@
         <v>3.5</v>
       </c>
       <c r="N13">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <v>1.36</v>
@@ -2068,13 +2068,13 @@
         <v>83</v>
       </c>
       <c r="G14">
-        <v>2.87</v>
+        <v>3.21</v>
       </c>
       <c r="H14">
-        <v>3.64</v>
+        <v>3.73</v>
       </c>
       <c r="I14">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="J14">
         <v>1.03</v>
@@ -2089,10 +2089,10 @@
         <v>4.5</v>
       </c>
       <c r="N14">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O14">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P14">
         <v>1.29</v>
@@ -2175,13 +2175,13 @@
         <v>84</v>
       </c>
       <c r="G15">
-        <v>3.19</v>
+        <v>3.6</v>
       </c>
       <c r="H15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I15">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2196,10 +2196,10 @@
         <v>3.26</v>
       </c>
       <c r="N15">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O15">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="P15">
         <v>1.41</v>
@@ -2238,19 +2238,19 @@
         <v>1.44</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG15">
         <v>1.95</v>
@@ -2282,13 +2282,13 @@
         <v>85</v>
       </c>
       <c r="G16">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H16">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
       <c r="I16">
-        <v>2.56</v>
+        <v>2.51</v>
       </c>
       <c r="J16">
         <v>1.02</v>
@@ -2303,10 +2303,10 @@
         <v>4.5</v>
       </c>
       <c r="N16">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="P16">
         <v>1.28</v>
@@ -2392,10 +2392,10 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="J17">
         <v>1.06</v>
@@ -2410,10 +2410,10 @@
         <v>3.2</v>
       </c>
       <c r="N17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P17">
         <v>1.47</v>
@@ -2452,19 +2452,19 @@
         <v>2.39</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG17">
         <v>1.8</v>
@@ -2499,7 +2499,7 @@
         <v>1.5</v>
       </c>
       <c r="H18">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="I18">
         <v>6.5</v>
@@ -2520,7 +2520,7 @@
         <v>1.61</v>
       </c>
       <c r="O18">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P18">
         <v>1.31</v>
@@ -2559,19 +2559,19 @@
         <v>0.99</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG18">
         <v>1.8</v>
@@ -2603,13 +2603,13 @@
         <v>88</v>
       </c>
       <c r="G19">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="H19">
-        <v>3.84</v>
+        <v>3.95</v>
       </c>
       <c r="I19">
-        <v>3.13</v>
+        <v>3.41</v>
       </c>
       <c r="J19">
         <v>1.03</v>
@@ -2624,10 +2624,10 @@
         <v>4.5</v>
       </c>
       <c r="N19">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="O19">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="P19">
         <v>1.29</v>
@@ -2710,13 +2710,13 @@
         <v>89</v>
       </c>
       <c r="G20">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="H20">
-        <v>3.9</v>
+        <v>5.12</v>
       </c>
       <c r="I20">
-        <v>6.5</v>
+        <v>9.26</v>
       </c>
       <c r="J20">
         <v>1.05</v>
@@ -2734,7 +2734,7 @@
         <v>1.8</v>
       </c>
       <c r="O20">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="P20">
         <v>1.35</v>
@@ -2817,13 +2817,13 @@
         <v>90</v>
       </c>
       <c r="G21">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H21">
-        <v>3.4</v>
+        <v>3.76</v>
       </c>
       <c r="I21">
-        <v>5.5</v>
+        <v>6.15</v>
       </c>
       <c r="J21">
         <v>1.08</v>
@@ -2838,10 +2838,10 @@
         <v>2.93</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O21">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P21">
         <v>1.48</v>
@@ -2924,13 +2924,13 @@
         <v>91</v>
       </c>
       <c r="G22">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="H22">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I22">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="J22">
         <v>1.07</v>
@@ -2945,10 +2945,10 @@
         <v>3.38</v>
       </c>
       <c r="N22">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P22">
         <v>1.4</v>
@@ -2996,7 +2996,7 @@
         <v>4.5</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF22">
         <v>1.27</v>
